--- a/resultados/pretratamiento-tablas-control/pretrat-inglaterra-elo-dificil.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-inglaterra-elo-dificil.xlsx
@@ -121,7 +121,7 @@
     <t>44.723 (303)</t>
   </si>
   <si>
-    <t>10.287 (303)</t>
+    <t>10.294 (303)</t>
   </si>
   <si>
     <t>10.251 (303)</t>
@@ -229,7 +229,7 @@
     <t>32.792 (24)</t>
   </si>
   <si>
-    <t>10.792 (24)</t>
+    <t>10.708 (24)</t>
   </si>
   <si>
     <t>13.458 (24)</t>
@@ -283,7 +283,7 @@
     <t>44.956 (249)</t>
   </si>
   <si>
-    <t>10.522 (249)</t>
+    <t>10.53 (249)</t>
   </si>
   <si>
     <t>10.466 (249)</t>
@@ -391,7 +391,7 @@
     <t>31.837 (43)</t>
   </si>
   <si>
-    <t>12.349 (43)</t>
+    <t>12.302 (43)</t>
   </si>
   <si>
     <t>13.721 (43)</t>
@@ -493,7 +493,7 @@
     <t>44.579 (202)</t>
   </si>
   <si>
-    <t>10.411 (202)</t>
+    <t>10.421 (202)</t>
   </si>
   <si>
     <t>10.337 (202)</t>
@@ -601,7 +601,7 @@
     <t>37.238 (63)</t>
   </si>
   <si>
-    <t>11.238 (63)</t>
+    <t>11.222 (63)</t>
   </si>
   <si>
     <t>12.317 (63)</t>
@@ -655,7 +655,7 @@
     <t>29.2 (5)</t>
   </si>
   <si>
-    <t>13.2 (5)</t>
+    <t>13.0 (5)</t>
   </si>
   <si>
     <t>14.4 (5)</t>
@@ -709,7 +709,7 @@
     <t>44.391 (161)</t>
   </si>
   <si>
-    <t>10.46 (161)</t>
+    <t>10.472 (161)</t>
   </si>
   <si>
     <t>10.298 (161)</t>
@@ -817,7 +817,7 @@
     <t>40.944 (89)</t>
   </si>
   <si>
-    <t>11.393 (89)</t>
+    <t>11.382 (89)</t>
   </si>
   <si>
     <t>11.708 (89)</t>
@@ -871,7 +871,7 @@
     <t>29.778 (9)</t>
   </si>
   <si>
-    <t>12.333 (9)</t>
+    <t>12.222 (9)</t>
   </si>
   <si>
     <t>13.889 (9)</t>
@@ -925,7 +925,7 @@
     <t>44.419 (246)</t>
   </si>
   <si>
-    <t>9.898 (246)</t>
+    <t>9.907 (246)</t>
   </si>
   <si>
     <t>9.951 (246)</t>
@@ -1033,7 +1033,7 @@
     <t>40.632 (38)</t>
   </si>
   <si>
-    <t>10.974 (38)</t>
+    <t>10.921 (38)</t>
   </si>
   <si>
     <t>12.947 (38)</t>
@@ -1129,7 +1129,7 @@
     <t>44.503 (189)</t>
   </si>
   <si>
-    <t>10.111 (189)</t>
+    <t>10.116 (189)</t>
   </si>
   <si>
     <t>10.185 (189)</t>
@@ -1183,7 +1183,7 @@
     <t>44.367 (237)</t>
   </si>
   <si>
-    <t>10.54 (237)</t>
+    <t>10.549 (237)</t>
   </si>
   <si>
     <t>10.498 (237)</t>
@@ -1237,7 +1237,7 @@
     <t>39.549 (71)</t>
   </si>
   <si>
-    <t>12.042 (71)</t>
+    <t>12.0 (71)</t>
   </si>
   <si>
     <t>12.521 (71)</t>
@@ -1396,7 +1396,7 @@
     <t>45.279 (244)</t>
   </si>
   <si>
-    <t>10.266 (244)</t>
+    <t>10.275 (244)</t>
   </si>
   <si>
     <t>10.262 (244)</t>
@@ -1450,7 +1450,7 @@
     <t>41.784 (102)</t>
   </si>
   <si>
-    <t>11.863 (102)</t>
+    <t>11.853 (102)</t>
   </si>
   <si>
     <t>12.225 (102)</t>
@@ -1504,7 +1504,7 @@
     <t>27.875 (16)</t>
   </si>
   <si>
-    <t>11.25 (16)</t>
+    <t>11.188 (16)</t>
   </si>
   <si>
     <t>13.688 (16)</t>
@@ -1612,7 +1612,7 @@
     <t>44.418 (225)</t>
   </si>
   <si>
-    <t>9.942 (225)</t>
+    <t>9.951 (225)</t>
   </si>
   <si>
     <t>9.947 (225)</t>
@@ -1666,7 +1666,7 @@
     <t>43.937 (143)</t>
   </si>
   <si>
-    <t>11.622 (143)</t>
+    <t>11.608 (143)</t>
   </si>
   <si>
     <t>11.594 (143)</t>
@@ -1816,7 +1816,7 @@
     <t>44.94 (200)</t>
   </si>
   <si>
-    <t>9.9 (200)</t>
+    <t>9.91 (200)</t>
   </si>
   <si>
     <t>9.78 (200)</t>
@@ -1924,7 +1924,7 @@
     <t>40.123 (57)</t>
   </si>
   <si>
-    <t>11.667 (57)</t>
+    <t>11.632 (57)</t>
   </si>
   <si>
     <t>12.772 (57)</t>
@@ -2023,7 +2023,7 @@
     <t>45.225 (142)</t>
   </si>
   <si>
-    <t>10.106 (142)</t>
+    <t>10.113 (142)</t>
   </si>
   <si>
     <t>9.894 (142)</t>
@@ -2131,7 +2131,7 @@
     <t>40.354 (99)</t>
   </si>
   <si>
-    <t>11.808 (99)</t>
+    <t>11.798 (99)</t>
   </si>
   <si>
     <t>11.444 (99)</t>
@@ -2329,7 +2329,7 @@
     <t>45.624 (229)</t>
   </si>
   <si>
-    <t>10.022 (229)</t>
+    <t>10.026 (229)</t>
   </si>
   <si>
     <t>10.393 (229)</t>
@@ -2383,7 +2383,7 @@
     <t>41.908 (142)</t>
   </si>
   <si>
-    <t>11.528 (142)</t>
+    <t>11.521 (142)</t>
   </si>
   <si>
     <t>11.465 (142)</t>
@@ -2599,7 +2599,7 @@
     <t>44.07 (201)</t>
   </si>
   <si>
-    <t>10.169 (201)</t>
+    <t>10.174 (201)</t>
   </si>
   <si>
     <t>10.303 (201)</t>
@@ -2653,7 +2653,7 @@
     <t>44.626 (171)</t>
   </si>
   <si>
-    <t>10.854 (171)</t>
+    <t>10.842 (171)</t>
   </si>
   <si>
     <t>10.912 (171)</t>
@@ -2707,7 +2707,7 @@
     <t>39.623 (61)</t>
   </si>
   <si>
-    <t>11.656 (61)</t>
+    <t>11.672 (61)</t>
   </si>
   <si>
     <t>12.262 (61)</t>
@@ -2806,7 +2806,7 @@
     <t>46.484 (155)</t>
   </si>
   <si>
-    <t>9.497 (155)</t>
+    <t>9.503 (155)</t>
   </si>
   <si>
     <t>9.813 (155)</t>
@@ -2914,7 +2914,7 @@
     <t>39.667 (81)</t>
   </si>
   <si>
-    <t>11.864 (81)</t>
+    <t>11.852 (81)</t>
   </si>
   <si>
     <t>12.889 (81)</t>
@@ -3076,7 +3076,7 @@
     <t>44.228 (228)</t>
   </si>
   <si>
-    <t>10.268 (228)</t>
+    <t>10.272 (228)</t>
   </si>
   <si>
     <t>10.535 (228)</t>
@@ -3130,7 +3130,7 @@
     <t>41.649 (148)</t>
   </si>
   <si>
-    <t>11.486 (148)</t>
+    <t>11.48 (148)</t>
   </si>
   <si>
     <t>11.196 (148)</t>
@@ -3340,7 +3340,7 @@
     <t>42.464 (179)</t>
   </si>
   <si>
-    <t>11.123 (179)</t>
+    <t>11.128 (179)</t>
   </si>
   <si>
     <t>11.112 (179)</t>
@@ -3391,7 +3391,7 @@
     <t>38.661 (56)</t>
   </si>
   <si>
-    <t>11.857 (56)</t>
+    <t>11.839 (56)</t>
   </si>
   <si>
     <t>12.661 (56)</t>
@@ -3550,7 +3550,7 @@
     <t>43.919 (161)</t>
   </si>
   <si>
-    <t>9.807 (161)</t>
+    <t>9.814 (161)</t>
   </si>
   <si>
     <t>10.012 (161)</t>
@@ -3601,7 +3601,7 @@
     <t>44.67 (197)</t>
   </si>
   <si>
-    <t>10.99 (197)</t>
+    <t>10.985 (197)</t>
   </si>
   <si>
     <t>10.792 (197)</t>
@@ -4184,10 +4184,10 @@
         <v>3.397</v>
       </c>
       <c r="H2">
-        <v>1.266</v>
+        <v>1.228</v>
       </c>
       <c r="I2">
-        <v>0.206</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4213,10 +4213,10 @@
         <v>-0.672</v>
       </c>
       <c r="H3">
-        <v>-0.263</v>
+        <v>-0.194</v>
       </c>
       <c r="I3">
-        <v>0.793</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4242,10 +4242,10 @@
         <v>-3.802</v>
       </c>
       <c r="H4">
-        <v>-1.074</v>
+        <v>-0.853</v>
       </c>
       <c r="I4">
-        <v>0.283</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4271,10 +4271,10 @@
         <v>-1.949</v>
       </c>
       <c r="H5">
-        <v>-0.552</v>
+        <v>-0.52</v>
       </c>
       <c r="I5">
-        <v>0.581</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4300,10 +4300,10 @@
         <v>3.095</v>
       </c>
       <c r="H6">
-        <v>0.855</v>
+        <v>0.719</v>
       </c>
       <c r="I6">
-        <v>0.393</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4329,10 +4329,10 @@
         <v>0.997</v>
       </c>
       <c r="H7">
-        <v>0.274</v>
+        <v>0.329</v>
       </c>
       <c r="I7">
-        <v>0.784</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4355,13 +4355,13 @@
         <v>0.038</v>
       </c>
       <c r="G8">
-        <v>-1.693</v>
+        <v>-1.755</v>
       </c>
       <c r="H8">
-        <v>-1.624</v>
+        <v>-1.778</v>
       </c>
       <c r="I8">
-        <v>0.105</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4387,10 +4387,10 @@
         <v>0.354</v>
       </c>
       <c r="H9">
-        <v>0.326</v>
+        <v>0.229</v>
       </c>
       <c r="I9">
-        <v>0.744</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4416,10 +4416,10 @@
         <v>1.586</v>
       </c>
       <c r="H10">
-        <v>1.266</v>
+        <v>0.896</v>
       </c>
       <c r="I10">
-        <v>0.206</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4445,10 +4445,10 @@
         <v>0.443</v>
       </c>
       <c r="H11">
-        <v>0.356</v>
+        <v>0.297</v>
       </c>
       <c r="I11">
-        <v>0.722</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4474,10 +4474,10 @@
         <v>-0.771</v>
       </c>
       <c r="H12">
-        <v>-0.603</v>
+        <v>-0.532</v>
       </c>
       <c r="I12">
-        <v>0.547</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4503,10 +4503,10 @@
         <v>-0.5659999999999999</v>
       </c>
       <c r="H13">
-        <v>-0.445</v>
+        <v>-0.534</v>
       </c>
       <c r="I13">
-        <v>0.657</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4532,10 +4532,10 @@
         <v>-0.012</v>
       </c>
       <c r="H14">
-        <v>-0.581</v>
+        <v>-0.602</v>
       </c>
       <c r="I14">
-        <v>0.5610000000000001</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4561,10 +4561,10 @@
         <v>0.006</v>
       </c>
       <c r="H15">
-        <v>0.306</v>
+        <v>0.251</v>
       </c>
       <c r="I15">
-        <v>0.759</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4590,10 +4590,10 @@
         <v>0.025</v>
       </c>
       <c r="H16">
-        <v>1.178</v>
+        <v>1.087</v>
       </c>
       <c r="I16">
-        <v>0.239</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4619,10 +4619,10 @@
         <v>-0.001</v>
       </c>
       <c r="H17">
-        <v>-0.04</v>
+        <v>-0.043</v>
       </c>
       <c r="I17">
-        <v>0.968</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4648,10 +4648,10 @@
         <v>0.004</v>
       </c>
       <c r="H18">
-        <v>0.168</v>
+        <v>0.115</v>
       </c>
       <c r="I18">
-        <v>0.867</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4677,10 +4677,10 @@
         <v>0.032</v>
       </c>
       <c r="H19">
-        <v>1.444</v>
+        <v>1.697</v>
       </c>
       <c r="I19">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -4773,10 +4773,10 @@
         <v>-2.31</v>
       </c>
       <c r="J2">
-        <v>-0.879</v>
+        <v>-0.9419999999999999</v>
       </c>
       <c r="K2">
-        <v>0.38</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4808,10 +4808,10 @@
         <v>-3.456</v>
       </c>
       <c r="J3">
-        <v>-1.382</v>
+        <v>-1.202</v>
       </c>
       <c r="K3">
-        <v>0.168</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4843,10 +4843,10 @@
         <v>-3.672</v>
       </c>
       <c r="J4">
-        <v>-1.06</v>
+        <v>-0.976</v>
       </c>
       <c r="K4">
-        <v>0.29</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4878,10 +4878,10 @@
         <v>-3.448</v>
       </c>
       <c r="J5">
-        <v>-0.997</v>
+        <v>-1.069</v>
       </c>
       <c r="K5">
-        <v>0.319</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4913,10 +4913,10 @@
         <v>2.22</v>
       </c>
       <c r="J6">
-        <v>0.626</v>
+        <v>0.537</v>
       </c>
       <c r="K6">
-        <v>0.532</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4948,10 +4948,10 @@
         <v>-0.987</v>
       </c>
       <c r="J7">
-        <v>-0.277</v>
+        <v>-0.252</v>
       </c>
       <c r="K7">
-        <v>0.782</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4980,13 +4980,13 @@
         <v>0.04</v>
       </c>
       <c r="I8">
-        <v>0.289</v>
+        <v>0.264</v>
       </c>
       <c r="J8">
-        <v>0.282</v>
+        <v>0.277</v>
       </c>
       <c r="K8">
-        <v>0.778</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5018,10 +5018,10 @@
         <v>1.231</v>
       </c>
       <c r="J9">
-        <v>1.162</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="K9">
-        <v>0.246</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5053,10 +5053,10 @@
         <v>1.232</v>
       </c>
       <c r="J10">
-        <v>1.004</v>
+        <v>0.871</v>
       </c>
       <c r="K10">
-        <v>0.316</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5088,10 +5088,10 @@
         <v>0.901</v>
       </c>
       <c r="J11">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="K11">
-        <v>0.46</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5123,10 +5123,10 @@
         <v>-0.255</v>
       </c>
       <c r="J12">
-        <v>-0.204</v>
+        <v>-0.178</v>
       </c>
       <c r="K12">
-        <v>0.839</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5158,10 +5158,10 @@
         <v>-0.25</v>
       </c>
       <c r="J13">
-        <v>-0.201</v>
+        <v>-0.193</v>
       </c>
       <c r="K13">
-        <v>0.841</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5193,10 +5193,10 @@
         <v>-0.011</v>
       </c>
       <c r="J14">
-        <v>-0.5580000000000001</v>
+        <v>-0.616</v>
       </c>
       <c r="K14">
-        <v>0.577</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5228,10 +5228,10 @@
         <v>-0.01</v>
       </c>
       <c r="J15">
-        <v>-0.517</v>
+        <v>-0.473</v>
       </c>
       <c r="K15">
-        <v>0.605</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5263,10 +5263,10 @@
         <v>0.011</v>
       </c>
       <c r="J16">
-        <v>0.501</v>
+        <v>0.305</v>
       </c>
       <c r="K16">
-        <v>0.616</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5298,10 +5298,10 @@
         <v>-0.023</v>
       </c>
       <c r="J17">
-        <v>-1.08</v>
+        <v>-1.104</v>
       </c>
       <c r="K17">
-        <v>0.281</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5333,10 +5333,10 @@
         <v>0.003</v>
       </c>
       <c r="J18">
-        <v>0.152</v>
+        <v>0.107</v>
       </c>
       <c r="K18">
-        <v>0.879</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5368,10 +5368,10 @@
         <v>0.029</v>
       </c>
       <c r="J19">
-        <v>1.362</v>
+        <v>1.345</v>
       </c>
       <c r="K19">
-        <v>0.174</v>
+        <v>0.179</v>
       </c>
     </row>
   </sheetData>
@@ -5464,10 +5464,10 @@
         <v>-4.565</v>
       </c>
       <c r="J2">
-        <v>-1.495</v>
+        <v>-1.593</v>
       </c>
       <c r="K2">
-        <v>0.136</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5499,10 +5499,10 @@
         <v>-5.936</v>
       </c>
       <c r="J3">
-        <v>-2.046</v>
+        <v>-2.003</v>
       </c>
       <c r="K3">
-        <v>0.041</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5534,10 +5534,10 @@
         <v>-6.048</v>
       </c>
       <c r="J4">
-        <v>-1.503</v>
+        <v>-1.445</v>
       </c>
       <c r="K4">
-        <v>0.134</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5569,10 +5569,10 @@
         <v>-5.62</v>
       </c>
       <c r="J5">
-        <v>-1.399</v>
+        <v>-1.5</v>
       </c>
       <c r="K5">
-        <v>0.163</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5604,10 +5604,10 @@
         <v>0.79</v>
       </c>
       <c r="J6">
-        <v>0.191</v>
+        <v>0.138</v>
       </c>
       <c r="K6">
-        <v>0.848</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5639,10 +5639,10 @@
         <v>-0.944</v>
       </c>
       <c r="J7">
-        <v>-0.228</v>
+        <v>-0.205</v>
       </c>
       <c r="K7">
-        <v>0.82</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5671,13 +5671,13 @@
         <v>0.03</v>
       </c>
       <c r="I8">
-        <v>0.9</v>
+        <v>0.887</v>
       </c>
       <c r="J8">
-        <v>0.756</v>
+        <v>0.759</v>
       </c>
       <c r="K8">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5709,10 +5709,10 @@
         <v>2.631</v>
       </c>
       <c r="J9">
-        <v>2.142</v>
+        <v>1.879</v>
       </c>
       <c r="K9">
-        <v>0.033</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5744,10 +5744,10 @@
         <v>2.947</v>
       </c>
       <c r="J10">
-        <v>2.072</v>
+        <v>1.806</v>
       </c>
       <c r="K10">
-        <v>0.039</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5779,10 +5779,10 @@
         <v>1.82</v>
       </c>
       <c r="J11">
-        <v>1.286</v>
+        <v>1.337</v>
       </c>
       <c r="K11">
-        <v>0.199</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5814,10 +5814,10 @@
         <v>0.697</v>
       </c>
       <c r="J12">
-        <v>0.479</v>
+        <v>0.334</v>
       </c>
       <c r="K12">
-        <v>0.632</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5849,10 +5849,10 @@
         <v>-0.032</v>
       </c>
       <c r="J13">
-        <v>-0.022</v>
+        <v>-0.02</v>
       </c>
       <c r="K13">
-        <v>0.982</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5884,10 +5884,10 @@
         <v>-0.005</v>
       </c>
       <c r="J14">
-        <v>-0.231</v>
+        <v>-0.246</v>
       </c>
       <c r="K14">
-        <v>0.8179999999999999</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5919,10 +5919,10 @@
         <v>-0.011</v>
       </c>
       <c r="J15">
-        <v>-0.499</v>
+        <v>-0.554</v>
       </c>
       <c r="K15">
-        <v>0.618</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5954,10 +5954,10 @@
         <v>0.003</v>
       </c>
       <c r="J16">
-        <v>0.105</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="K16">
-        <v>0.916</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5989,10 +5989,10 @@
         <v>-0.024</v>
       </c>
       <c r="J17">
-        <v>-1.009</v>
+        <v>-0.96</v>
       </c>
       <c r="K17">
-        <v>0.314</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6024,10 +6024,10 @@
         <v>-0.008</v>
       </c>
       <c r="J18">
-        <v>-0.306</v>
+        <v>-0.242</v>
       </c>
       <c r="K18">
-        <v>0.76</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6059,10 +6059,10 @@
         <v>0.036</v>
       </c>
       <c r="J19">
-        <v>1.45</v>
+        <v>1.477</v>
       </c>
       <c r="K19">
-        <v>0.148</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -6155,10 +6155,10 @@
         <v>-4.775</v>
       </c>
       <c r="J2">
-        <v>-1.368</v>
+        <v>-1.66</v>
       </c>
       <c r="K2">
-        <v>0.172</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6190,10 +6190,10 @@
         <v>-6.823</v>
       </c>
       <c r="J3">
-        <v>-2.058</v>
+        <v>-1.974</v>
       </c>
       <c r="K3">
-        <v>0.04</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -6225,10 +6225,10 @@
         <v>-7.462</v>
       </c>
       <c r="J4">
-        <v>-1.623</v>
+        <v>-1.443</v>
       </c>
       <c r="K4">
-        <v>0.105</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6260,10 +6260,10 @@
         <v>-5.173</v>
       </c>
       <c r="J5">
-        <v>-1.126</v>
+        <v>-1.21</v>
       </c>
       <c r="K5">
-        <v>0.261</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6295,10 +6295,10 @@
         <v>0.901</v>
       </c>
       <c r="J6">
-        <v>0.191</v>
+        <v>0.141</v>
       </c>
       <c r="K6">
-        <v>0.849</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6362,13 +6362,13 @@
         <v>0.023</v>
       </c>
       <c r="I8">
-        <v>1.486</v>
+        <v>1.473</v>
       </c>
       <c r="J8">
-        <v>1.093</v>
+        <v>1.276</v>
       </c>
       <c r="K8">
-        <v>0.275</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6400,10 +6400,10 @@
         <v>2.869</v>
       </c>
       <c r="J9">
-        <v>2.043</v>
+        <v>1.738</v>
       </c>
       <c r="K9">
-        <v>0.042</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6435,10 +6435,10 @@
         <v>3.302</v>
       </c>
       <c r="J10">
-        <v>2.032</v>
+        <v>1.626</v>
       </c>
       <c r="K10">
-        <v>0.043</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6470,10 +6470,10 @@
         <v>1.133</v>
       </c>
       <c r="J11">
-        <v>0.7</v>
+        <v>0.729</v>
       </c>
       <c r="K11">
-        <v>0.484</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6505,10 +6505,10 @@
         <v>0.65</v>
       </c>
       <c r="J12">
-        <v>0.39</v>
+        <v>0.286</v>
       </c>
       <c r="K12">
-        <v>0.696</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6540,10 +6540,10 @@
         <v>-0.8120000000000001</v>
       </c>
       <c r="J13">
-        <v>-0.49</v>
+        <v>-0.509</v>
       </c>
       <c r="K13">
-        <v>0.624</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6575,10 +6575,10 @@
         <v>-0.02</v>
       </c>
       <c r="J14">
-        <v>-0.775</v>
+        <v>-0.897</v>
       </c>
       <c r="K14">
-        <v>0.439</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6610,10 +6610,10 @@
         <v>-0.021</v>
       </c>
       <c r="J15">
-        <v>-0.8</v>
+        <v>-0.968</v>
       </c>
       <c r="K15">
-        <v>0.424</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6645,10 +6645,10 @@
         <v>-0.013</v>
       </c>
       <c r="J16">
-        <v>-0.454</v>
+        <v>-0.362</v>
       </c>
       <c r="K16">
-        <v>0.65</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6680,10 +6680,10 @@
         <v>-0.034</v>
       </c>
       <c r="J17">
-        <v>-1.215</v>
+        <v>-1.156</v>
       </c>
       <c r="K17">
-        <v>0.225</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6715,10 +6715,10 @@
         <v>-0.007</v>
       </c>
       <c r="J18">
-        <v>-0.24</v>
+        <v>-0.206</v>
       </c>
       <c r="K18">
-        <v>0.8100000000000001</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6750,10 +6750,10 @@
         <v>0.051</v>
       </c>
       <c r="J19">
-        <v>1.809</v>
+        <v>2.211</v>
       </c>
       <c r="K19">
-        <v>0.07099999999999999</v>
+        <v>0.027</v>
       </c>
     </row>
   </sheetData>
@@ -6839,10 +6839,10 @@
         <v>-2.731</v>
       </c>
       <c r="I2">
-        <v>-1.245</v>
+        <v>-1.327</v>
       </c>
       <c r="J2">
-        <v>0.214</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6871,10 +6871,10 @@
         <v>-1.032</v>
       </c>
       <c r="I3">
-        <v>-0.493</v>
+        <v>-0.386</v>
       </c>
       <c r="J3">
-        <v>0.622</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6903,10 +6903,10 @@
         <v>-0.976</v>
       </c>
       <c r="I4">
-        <v>-0.337</v>
+        <v>-0.278</v>
       </c>
       <c r="J4">
-        <v>0.736</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6935,10 +6935,10 @@
         <v>-2.471</v>
       </c>
       <c r="I5">
-        <v>-0.856</v>
+        <v>-0.738</v>
       </c>
       <c r="J5">
-        <v>0.393</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6967,10 +6967,10 @@
         <v>4.089</v>
       </c>
       <c r="I6">
-        <v>1.383</v>
+        <v>1.071</v>
       </c>
       <c r="J6">
-        <v>0.167</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6999,10 +6999,10 @@
         <v>1.066</v>
       </c>
       <c r="I7">
-        <v>0.358</v>
+        <v>0.253</v>
       </c>
       <c r="J7">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7028,13 +7028,13 @@
         <v>0.06</v>
       </c>
       <c r="H8">
-        <v>0.19</v>
+        <v>0.169</v>
       </c>
       <c r="I8">
-        <v>0.222</v>
+        <v>0.197</v>
       </c>
       <c r="J8">
-        <v>0.825</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7063,10 +7063,10 @@
         <v>0.505</v>
       </c>
       <c r="I9">
-        <v>0.57</v>
+        <v>0.408</v>
       </c>
       <c r="J9">
-        <v>0.569</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7095,10 +7095,10 @@
         <v>0.347</v>
       </c>
       <c r="I10">
-        <v>0.338</v>
+        <v>0.258</v>
       </c>
       <c r="J10">
-        <v>0.736</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7127,10 +7127,10 @@
         <v>0.836</v>
       </c>
       <c r="I11">
-        <v>0.822</v>
+        <v>0.712</v>
       </c>
       <c r="J11">
-        <v>0.411</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7159,10 +7159,10 @@
         <v>-0.8080000000000001</v>
       </c>
       <c r="I12">
-        <v>-0.773</v>
+        <v>-0.637</v>
       </c>
       <c r="J12">
-        <v>0.44</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7191,10 +7191,10 @@
         <v>-0.981</v>
       </c>
       <c r="I13">
-        <v>-0.9429999999999999</v>
+        <v>-0.6929999999999999</v>
       </c>
       <c r="J13">
-        <v>0.346</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7223,10 +7223,10 @@
         <v>-0.003</v>
       </c>
       <c r="I14">
-        <v>-0.166</v>
+        <v>-0.191</v>
       </c>
       <c r="J14">
-        <v>0.868</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7255,10 +7255,10 @@
         <v>0.003</v>
       </c>
       <c r="I15">
-        <v>0.18</v>
+        <v>0.158</v>
       </c>
       <c r="J15">
-        <v>0.857</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7287,10 +7287,10 @@
         <v>0.02</v>
       </c>
       <c r="I16">
-        <v>1.146</v>
+        <v>0.875</v>
       </c>
       <c r="J16">
-        <v>0.252</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7319,10 +7319,10 @@
         <v>-0.011</v>
       </c>
       <c r="I17">
-        <v>-0.613</v>
+        <v>-0.625</v>
       </c>
       <c r="J17">
-        <v>0.54</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7351,10 +7351,10 @@
         <v>-0.002</v>
       </c>
       <c r="I18">
-        <v>-0.128</v>
+        <v>-0.101</v>
       </c>
       <c r="J18">
-        <v>0.898</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7383,10 +7383,10 @@
         <v>0.014</v>
       </c>
       <c r="I19">
-        <v>0.76</v>
+        <v>0.723</v>
       </c>
       <c r="J19">
-        <v>0.448</v>
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -7479,10 +7479,10 @@
         <v>-4.418</v>
       </c>
       <c r="J2">
-        <v>-1.709</v>
+        <v>-1.787</v>
       </c>
       <c r="K2">
-        <v>0.08799999999999999</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7514,10 +7514,10 @@
         <v>-1.198</v>
       </c>
       <c r="J3">
-        <v>-0.485</v>
+        <v>-0.5</v>
       </c>
       <c r="K3">
-        <v>0.628</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7549,10 +7549,10 @@
         <v>-1.997</v>
       </c>
       <c r="J4">
-        <v>-0.584</v>
+        <v>-0.523</v>
       </c>
       <c r="K4">
-        <v>0.5590000000000001</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7584,10 +7584,10 @@
         <v>-3.279</v>
       </c>
       <c r="J5">
-        <v>-0.962</v>
+        <v>-0.9340000000000001</v>
       </c>
       <c r="K5">
-        <v>0.337</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7619,10 +7619,10 @@
         <v>2.752</v>
       </c>
       <c r="J6">
-        <v>0.787</v>
+        <v>0.704</v>
       </c>
       <c r="K6">
-        <v>0.432</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7654,10 +7654,10 @@
         <v>-2.349</v>
       </c>
       <c r="J7">
-        <v>-0.669</v>
+        <v>-0.52</v>
       </c>
       <c r="K7">
-        <v>0.504</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7686,13 +7686,13 @@
         <v>0.042</v>
       </c>
       <c r="I8">
-        <v>1.188</v>
+        <v>1.181</v>
       </c>
       <c r="J8">
-        <v>1.179</v>
+        <v>1.189</v>
       </c>
       <c r="K8">
-        <v>0.239</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7724,10 +7724,10 @@
         <v>0.361</v>
       </c>
       <c r="J9">
-        <v>0.345</v>
+        <v>0.321</v>
       </c>
       <c r="K9">
-        <v>0.731</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7759,10 +7759,10 @@
         <v>0.335</v>
       </c>
       <c r="J10">
-        <v>0.277</v>
+        <v>0.239</v>
       </c>
       <c r="K10">
-        <v>0.782</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7794,10 +7794,10 @@
         <v>0.821</v>
       </c>
       <c r="J11">
-        <v>0.6840000000000001</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="K11">
-        <v>0.495</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7829,10 +7829,10 @@
         <v>-0.638</v>
       </c>
       <c r="J12">
-        <v>-0.517</v>
+        <v>-0.462</v>
       </c>
       <c r="K12">
-        <v>0.605</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7864,10 +7864,10 @@
         <v>0.201</v>
       </c>
       <c r="J13">
-        <v>0.164</v>
+        <v>0.134</v>
       </c>
       <c r="K13">
-        <v>0.87</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7899,10 +7899,10 @@
         <v>-0.002</v>
       </c>
       <c r="J14">
-        <v>-0.128</v>
+        <v>-0.156</v>
       </c>
       <c r="K14">
-        <v>0.898</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7934,10 +7934,10 @@
         <v>-0.001</v>
       </c>
       <c r="J15">
-        <v>-0.064</v>
+        <v>-0.061</v>
       </c>
       <c r="K15">
-        <v>0.949</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7969,10 +7969,10 @@
         <v>0.022</v>
       </c>
       <c r="J16">
-        <v>1.068</v>
+        <v>0.719</v>
       </c>
       <c r="K16">
-        <v>0.286</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8004,10 +8004,10 @@
         <v>-0.026</v>
       </c>
       <c r="J17">
-        <v>-1.264</v>
+        <v>-1.395</v>
       </c>
       <c r="K17">
-        <v>0.207</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8039,10 +8039,10 @@
         <v>0.002</v>
       </c>
       <c r="J18">
-        <v>0.114</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="K18">
-        <v>0.909</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8074,10 +8074,10 @@
         <v>0.011</v>
       </c>
       <c r="J19">
-        <v>0.516</v>
+        <v>0.543</v>
       </c>
       <c r="K19">
-        <v>0.606</v>
+        <v>0.587</v>
       </c>
     </row>
   </sheetData>
@@ -8170,10 +8170,10 @@
         <v>-5.383</v>
       </c>
       <c r="J2">
-        <v>-1.813</v>
+        <v>-1.816</v>
       </c>
       <c r="K2">
-        <v>0.07099999999999999</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8205,10 +8205,10 @@
         <v>-4.615</v>
       </c>
       <c r="J3">
-        <v>-1.631</v>
+        <v>-1.713</v>
       </c>
       <c r="K3">
-        <v>0.104</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8240,10 +8240,10 @@
         <v>-6.416</v>
       </c>
       <c r="J4">
-        <v>-1.638</v>
+        <v>-1.692</v>
       </c>
       <c r="K4">
-        <v>0.102</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8275,7 +8275,7 @@
         <v>-4.965</v>
       </c>
       <c r="J5">
-        <v>-1.269</v>
+        <v>-1.268</v>
       </c>
       <c r="K5">
         <v>0.205</v>
@@ -8310,10 +8310,10 @@
         <v>1.949</v>
       </c>
       <c r="J6">
-        <v>0.485</v>
+        <v>0.369</v>
       </c>
       <c r="K6">
-        <v>0.628</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8345,10 +8345,10 @@
         <v>-1.181</v>
       </c>
       <c r="J7">
-        <v>-0.293</v>
+        <v>-0.221</v>
       </c>
       <c r="K7">
-        <v>0.77</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8377,13 +8377,13 @@
         <v>0.032</v>
       </c>
       <c r="I8">
-        <v>1.377</v>
+        <v>1.37</v>
       </c>
       <c r="J8">
-        <v>1.189</v>
+        <v>1.123</v>
       </c>
       <c r="K8">
-        <v>0.235</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8415,10 +8415,10 @@
         <v>2.064</v>
       </c>
       <c r="J9">
-        <v>1.723</v>
+        <v>1.557</v>
       </c>
       <c r="K9">
-        <v>0.08599999999999999</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8450,10 +8450,10 @@
         <v>2.732</v>
       </c>
       <c r="J10">
-        <v>1.972</v>
+        <v>1.89</v>
       </c>
       <c r="K10">
-        <v>0.049</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8485,10 +8485,10 @@
         <v>1.621</v>
       </c>
       <c r="J11">
-        <v>1.176</v>
+        <v>1.269</v>
       </c>
       <c r="K11">
-        <v>0.24</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8520,10 +8520,10 @@
         <v>0.222</v>
       </c>
       <c r="J12">
-        <v>0.156</v>
+        <v>0.116</v>
       </c>
       <c r="K12">
-        <v>0.876</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8555,10 +8555,10 @@
         <v>0.006</v>
       </c>
       <c r="J13">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K13">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8590,10 +8590,10 @@
         <v>0.007</v>
       </c>
       <c r="J14">
-        <v>0.298</v>
+        <v>0.346</v>
       </c>
       <c r="K14">
-        <v>0.765</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8625,10 +8625,10 @@
         <v>0.006</v>
       </c>
       <c r="J15">
-        <v>0.256</v>
+        <v>0.282</v>
       </c>
       <c r="K15">
-        <v>0.798</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8660,10 +8660,10 @@
         <v>0.015</v>
       </c>
       <c r="J16">
-        <v>0.622</v>
+        <v>0.44</v>
       </c>
       <c r="K16">
-        <v>0.534</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8695,10 +8695,10 @@
         <v>-0.022</v>
       </c>
       <c r="J17">
-        <v>-0.9419999999999999</v>
+        <v>-0.889</v>
       </c>
       <c r="K17">
-        <v>0.347</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8730,10 +8730,10 @@
         <v>-0.003</v>
       </c>
       <c r="J18">
-        <v>-0.14</v>
+        <v>-0.121</v>
       </c>
       <c r="K18">
-        <v>0.889</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8765,10 +8765,10 @@
         <v>0.012</v>
       </c>
       <c r="J19">
-        <v>0.497</v>
+        <v>0.452</v>
       </c>
       <c r="K19">
-        <v>0.62</v>
+        <v>0.651</v>
       </c>
     </row>
   </sheetData>
@@ -8868,10 +8868,10 @@
         <v>-6.729</v>
       </c>
       <c r="K2">
-        <v>-2.007</v>
+        <v>-2.185</v>
       </c>
       <c r="L2">
-        <v>0.045</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8906,10 +8906,10 @@
         <v>-5.888</v>
       </c>
       <c r="K3">
-        <v>-1.842</v>
+        <v>-2.087</v>
       </c>
       <c r="L3">
-        <v>0.066</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8944,10 +8944,10 @@
         <v>-7.534</v>
       </c>
       <c r="K4">
-        <v>-1.702</v>
+        <v>-1.649</v>
       </c>
       <c r="L4">
-        <v>0.089</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8982,10 +8982,10 @@
         <v>-5.13</v>
       </c>
       <c r="K5">
-        <v>-1.159</v>
+        <v>-1.202</v>
       </c>
       <c r="L5">
-        <v>0.247</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -9020,10 +9020,10 @@
         <v>0.783</v>
       </c>
       <c r="K6">
-        <v>0.172</v>
+        <v>0.136</v>
       </c>
       <c r="L6">
-        <v>0.863</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -9058,10 +9058,10 @@
         <v>-0.877</v>
       </c>
       <c r="K7">
-        <v>-0.192</v>
+        <v>-0.179</v>
       </c>
       <c r="L7">
-        <v>0.848</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -9093,13 +9093,13 @@
         <v>0.025</v>
       </c>
       <c r="J8">
-        <v>2.235</v>
+        <v>2.209</v>
       </c>
       <c r="K8">
-        <v>1.711</v>
+        <v>1.845</v>
       </c>
       <c r="L8">
-        <v>0.08799999999999999</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -9134,10 +9134,10 @@
         <v>2.489</v>
       </c>
       <c r="K9">
-        <v>1.838</v>
+        <v>1.754</v>
       </c>
       <c r="L9">
-        <v>0.067</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -9172,10 +9172,10 @@
         <v>2.769</v>
       </c>
       <c r="K10">
-        <v>1.767</v>
+        <v>1.563</v>
       </c>
       <c r="L10">
-        <v>0.078</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -9210,10 +9210,10 @@
         <v>1.286</v>
       </c>
       <c r="K11">
-        <v>0.825</v>
+        <v>0.894</v>
       </c>
       <c r="L11">
-        <v>0.41</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -9248,10 +9248,10 @@
         <v>0.636</v>
       </c>
       <c r="K12">
-        <v>0.397</v>
+        <v>0.318</v>
       </c>
       <c r="L12">
-        <v>0.6919999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -9286,7 +9286,7 @@
         <v>-0.306</v>
       </c>
       <c r="K13">
-        <v>-0.192</v>
+        <v>-0.191</v>
       </c>
       <c r="L13">
         <v>0.848</v>
@@ -9324,10 +9324,10 @@
         <v>0.002</v>
       </c>
       <c r="K14">
-        <v>0.074</v>
+        <v>0.097</v>
       </c>
       <c r="L14">
-        <v>0.9409999999999999</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -9362,10 +9362,10 @@
         <v>0.003</v>
       </c>
       <c r="K15">
-        <v>0.11</v>
+        <v>0.143</v>
       </c>
       <c r="L15">
-        <v>0.912</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -9400,10 +9400,10 @@
         <v>0.013</v>
       </c>
       <c r="K16">
-        <v>0.492</v>
+        <v>0.435</v>
       </c>
       <c r="L16">
-        <v>0.623</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -9438,10 +9438,10 @@
         <v>-0.024</v>
       </c>
       <c r="K17">
-        <v>-0.897</v>
+        <v>-0.862</v>
       </c>
       <c r="L17">
-        <v>0.37</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9476,10 +9476,10 @@
         <v>0.002</v>
       </c>
       <c r="K18">
-        <v>0.083</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="L18">
-        <v>0.9340000000000001</v>
+        <v>0.9330000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -9514,10 +9514,10 @@
         <v>0.03</v>
       </c>
       <c r="K19">
-        <v>1.078</v>
+        <v>1.203</v>
       </c>
       <c r="L19">
-        <v>0.281</v>
+        <v>0.229</v>
       </c>
     </row>
   </sheetData>
@@ -9603,10 +9603,10 @@
         <v>2.925</v>
       </c>
       <c r="I2">
-        <v>0.922</v>
+        <v>0.883</v>
       </c>
       <c r="J2">
-        <v>0.357</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9635,10 +9635,10 @@
         <v>-1.23</v>
       </c>
       <c r="I3">
-        <v>-0.407</v>
+        <v>-0.351</v>
       </c>
       <c r="J3">
-        <v>0.6840000000000001</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9667,10 +9667,10 @@
         <v>-5.232</v>
       </c>
       <c r="I4">
-        <v>-1.252</v>
+        <v>-1.065</v>
       </c>
       <c r="J4">
-        <v>0.211</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9699,10 +9699,10 @@
         <v>-4.912</v>
       </c>
       <c r="I5">
-        <v>-1.178</v>
+        <v>-1.31</v>
       </c>
       <c r="J5">
-        <v>0.239</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9731,10 +9731,10 @@
         <v>0.392</v>
       </c>
       <c r="I6">
-        <v>0.091</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="J6">
-        <v>0.927</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9763,10 +9763,10 @@
         <v>-6.013</v>
       </c>
       <c r="I7">
-        <v>-1.402</v>
+        <v>-1.575</v>
       </c>
       <c r="J7">
-        <v>0.162</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9792,13 +9792,13 @@
         <v>0.027</v>
       </c>
       <c r="H8">
-        <v>-1.379</v>
+        <v>-1.443</v>
       </c>
       <c r="I8">
-        <v>-1.118</v>
+        <v>-1.126</v>
       </c>
       <c r="J8">
-        <v>0.264</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9827,10 +9827,10 @@
         <v>0.521</v>
       </c>
       <c r="I9">
-        <v>0.407</v>
+        <v>0.311</v>
       </c>
       <c r="J9">
-        <v>0.6840000000000001</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9859,10 +9859,10 @@
         <v>1.56</v>
       </c>
       <c r="I10">
-        <v>1.054</v>
+        <v>0.834</v>
       </c>
       <c r="J10">
-        <v>0.292</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9891,10 +9891,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="I11">
-        <v>0.64</v>
+        <v>0.601</v>
       </c>
       <c r="J11">
-        <v>0.523</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9955,10 +9955,10 @@
         <v>1.799</v>
       </c>
       <c r="I13">
-        <v>1.199</v>
+        <v>1.436</v>
       </c>
       <c r="J13">
-        <v>0.231</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9987,10 +9987,10 @@
         <v>-0.016</v>
       </c>
       <c r="I14">
-        <v>-0.673</v>
+        <v>-0.704</v>
       </c>
       <c r="J14">
-        <v>0.502</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10019,10 +10019,10 @@
         <v>0.001</v>
       </c>
       <c r="I15">
-        <v>0.045</v>
+        <v>0.041</v>
       </c>
       <c r="J15">
-        <v>0.964</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10051,10 +10051,10 @@
         <v>0.017</v>
       </c>
       <c r="I16">
-        <v>0.674</v>
+        <v>0.587</v>
       </c>
       <c r="J16">
-        <v>0.501</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10083,10 +10083,10 @@
         <v>0.004</v>
       </c>
       <c r="I17">
-        <v>0.14</v>
+        <v>0.211</v>
       </c>
       <c r="J17">
-        <v>0.889</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10115,10 +10115,10 @@
         <v>0.015</v>
       </c>
       <c r="I18">
-        <v>0.585</v>
+        <v>0.482</v>
       </c>
       <c r="J18">
-        <v>0.5590000000000001</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10147,10 +10147,10 @@
         <v>0.033</v>
       </c>
       <c r="I19">
-        <v>1.293</v>
+        <v>1.493</v>
       </c>
       <c r="J19">
-        <v>0.197</v>
+        <v>0.135</v>
       </c>
     </row>
   </sheetData>
@@ -10236,10 +10236,10 @@
         <v>2.295</v>
       </c>
       <c r="I2">
-        <v>0.619</v>
+        <v>0.553</v>
       </c>
       <c r="J2">
-        <v>0.536</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10268,10 +10268,10 @@
         <v>-0.862</v>
       </c>
       <c r="I3">
-        <v>-0.244</v>
+        <v>-0.231</v>
       </c>
       <c r="J3">
-        <v>0.8070000000000001</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10300,10 +10300,10 @@
         <v>-4.879</v>
       </c>
       <c r="I4">
-        <v>-0.999</v>
+        <v>-0.801</v>
       </c>
       <c r="J4">
-        <v>0.318</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10332,10 +10332,10 @@
         <v>-5.638</v>
       </c>
       <c r="I5">
-        <v>-1.158</v>
+        <v>-1.2</v>
       </c>
       <c r="J5">
-        <v>0.248</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10364,10 +10364,10 @@
         <v>1.215</v>
       </c>
       <c r="I6">
-        <v>0.243</v>
+        <v>0.216</v>
       </c>
       <c r="J6">
-        <v>0.8080000000000001</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10396,10 +10396,10 @@
         <v>-3.924</v>
       </c>
       <c r="I7">
-        <v>-0.782</v>
+        <v>-0.785</v>
       </c>
       <c r="J7">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10425,13 +10425,13 @@
         <v>0.02</v>
       </c>
       <c r="H8">
-        <v>-1.252</v>
+        <v>-1.348</v>
       </c>
       <c r="I8">
-        <v>-0.869</v>
+        <v>-0.8129999999999999</v>
       </c>
       <c r="J8">
-        <v>0.385</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10460,10 +10460,10 @@
         <v>0.848</v>
       </c>
       <c r="I9">
-        <v>0.5669999999999999</v>
+        <v>0.476</v>
       </c>
       <c r="J9">
-        <v>0.571</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10492,10 +10492,10 @@
         <v>2.291</v>
       </c>
       <c r="I10">
-        <v>1.326</v>
+        <v>0.954</v>
       </c>
       <c r="J10">
-        <v>0.185</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10524,10 +10524,10 @@
         <v>1.281</v>
       </c>
       <c r="I11">
-        <v>0.747</v>
+        <v>0.666</v>
       </c>
       <c r="J11">
-        <v>0.456</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10556,10 +10556,10 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="I12">
-        <v>0.048</v>
+        <v>0.042</v>
       </c>
       <c r="J12">
-        <v>0.961</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10588,10 +10588,10 @@
         <v>1.528</v>
       </c>
       <c r="I13">
-        <v>0.871</v>
+        <v>0.92</v>
       </c>
       <c r="J13">
-        <v>0.384</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10623,7 +10623,7 @@
         <v>-0.089</v>
       </c>
       <c r="J14">
-        <v>0.93</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10652,10 +10652,10 @@
         <v>-0.002</v>
       </c>
       <c r="I15">
-        <v>-0.063</v>
+        <v>-0.054</v>
       </c>
       <c r="J15">
-        <v>0.95</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10684,10 +10684,10 @@
         <v>0.007</v>
       </c>
       <c r="I16">
-        <v>0.243</v>
+        <v>0.216</v>
       </c>
       <c r="J16">
-        <v>0.8080000000000001</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10716,10 +10716,10 @@
         <v>0.002</v>
       </c>
       <c r="I17">
-        <v>0.082</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="J17">
-        <v>0.9340000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10748,10 +10748,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="I18">
-        <v>-0.304</v>
+        <v>-0.244</v>
       </c>
       <c r="J18">
-        <v>0.761</v>
+        <v>0.8070000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10780,10 +10780,10 @@
         <v>0.044</v>
       </c>
       <c r="I19">
-        <v>1.469</v>
+        <v>1.647</v>
       </c>
       <c r="J19">
-        <v>0.143</v>
+        <v>0.099</v>
       </c>
     </row>
   </sheetData>
@@ -10869,10 +10869,10 @@
         <v>1.496</v>
       </c>
       <c r="I2">
-        <v>0.351</v>
+        <v>0.372</v>
       </c>
       <c r="J2">
-        <v>0.726</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10901,10 +10901,10 @@
         <v>-2.824</v>
       </c>
       <c r="I3">
-        <v>-0.697</v>
+        <v>-0.666</v>
       </c>
       <c r="J3">
-        <v>0.486</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10933,10 +10933,10 @@
         <v>-7.661</v>
       </c>
       <c r="I4">
-        <v>-1.367</v>
+        <v>-1.035</v>
       </c>
       <c r="J4">
-        <v>0.172</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10965,10 +10965,10 @@
         <v>-7.555</v>
       </c>
       <c r="I5">
-        <v>-1.352</v>
+        <v>-1.545</v>
       </c>
       <c r="J5">
-        <v>0.177</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10997,10 +10997,10 @@
         <v>2.002</v>
       </c>
       <c r="I6">
-        <v>0.349</v>
+        <v>0.335</v>
       </c>
       <c r="J6">
-        <v>0.728</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11029,10 +11029,10 @@
         <v>-2.841</v>
       </c>
       <c r="I7">
-        <v>-0.493</v>
+        <v>-0.509</v>
       </c>
       <c r="J7">
-        <v>0.622</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11058,13 +11058,13 @@
         <v>0.015</v>
       </c>
       <c r="H8">
-        <v>-0.34</v>
+        <v>-0.452</v>
       </c>
       <c r="I8">
-        <v>-0.205</v>
+        <v>-0.268</v>
       </c>
       <c r="J8">
-        <v>0.837</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11093,10 +11093,10 @@
         <v>1.51</v>
       </c>
       <c r="I9">
-        <v>0.88</v>
+        <v>0.744</v>
       </c>
       <c r="J9">
-        <v>0.379</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11125,10 +11125,10 @@
         <v>3.207</v>
       </c>
       <c r="I10">
-        <v>1.618</v>
+        <v>1.161</v>
       </c>
       <c r="J10">
-        <v>0.106</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11157,10 +11157,10 @@
         <v>1.178</v>
       </c>
       <c r="I11">
-        <v>0.598</v>
+        <v>0.579</v>
       </c>
       <c r="J11">
-        <v>0.55</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11221,10 +11221,10 @@
         <v>0.976</v>
       </c>
       <c r="I13">
-        <v>0.484</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="J13">
-        <v>0.629</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11253,10 +11253,10 @@
         <v>-0.029</v>
       </c>
       <c r="I14">
-        <v>-0.923</v>
+        <v>-0.976</v>
       </c>
       <c r="J14">
-        <v>0.356</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11285,10 +11285,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="I15">
-        <v>-0.27</v>
+        <v>-0.267</v>
       </c>
       <c r="J15">
-        <v>0.787</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11317,10 +11317,10 @@
         <v>0.006</v>
       </c>
       <c r="I16">
-        <v>0.19</v>
+        <v>0.193</v>
       </c>
       <c r="J16">
-        <v>0.85</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11349,10 +11349,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I17">
-        <v>0.274</v>
+        <v>0.368</v>
       </c>
       <c r="J17">
-        <v>0.784</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11381,10 +11381,10 @@
         <v>-0.012</v>
       </c>
       <c r="I18">
-        <v>-0.341</v>
+        <v>-0.313</v>
       </c>
       <c r="J18">
-        <v>0.733</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11413,10 +11413,10 @@
         <v>0.066</v>
       </c>
       <c r="I19">
-        <v>1.916</v>
+        <v>2.187</v>
       </c>
       <c r="J19">
-        <v>0.056</v>
+        <v>0.029</v>
       </c>
     </row>
   </sheetData>
@@ -11502,10 +11502,10 @@
         <v>-1.555</v>
       </c>
       <c r="I2">
-        <v>-0.637</v>
+        <v>-0.5649999999999999</v>
       </c>
       <c r="J2">
-        <v>0.525</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11534,10 +11534,10 @@
         <v>-2.899</v>
       </c>
       <c r="I3">
-        <v>-1.248</v>
+        <v>-0.849</v>
       </c>
       <c r="J3">
-        <v>0.213</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11566,10 +11566,10 @@
         <v>-3.2</v>
       </c>
       <c r="I4">
-        <v>-0.995</v>
+        <v>-0.831</v>
       </c>
       <c r="J4">
-        <v>0.32</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11598,10 +11598,10 @@
         <v>-0.986</v>
       </c>
       <c r="I5">
-        <v>-0.307</v>
+        <v>-0.422</v>
       </c>
       <c r="J5">
-        <v>0.759</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11630,10 +11630,10 @@
         <v>5.314</v>
       </c>
       <c r="I6">
-        <v>1.618</v>
+        <v>1.723</v>
       </c>
       <c r="J6">
-        <v>0.106</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11662,10 +11662,10 @@
         <v>5.583</v>
       </c>
       <c r="I7">
-        <v>1.693</v>
+        <v>1.657</v>
       </c>
       <c r="J7">
-        <v>0.091</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11691,13 +11691,13 @@
         <v>0.046</v>
       </c>
       <c r="H8">
-        <v>-0.068</v>
+        <v>-0.122</v>
       </c>
       <c r="I8">
-        <v>-0.07199999999999999</v>
+        <v>-0.115</v>
       </c>
       <c r="J8">
-        <v>0.9429999999999999</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11726,10 +11726,10 @@
         <v>1.37</v>
       </c>
       <c r="I9">
-        <v>1.393</v>
+        <v>0.947</v>
       </c>
       <c r="J9">
-        <v>0.164</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11758,10 +11758,10 @@
         <v>1.427</v>
       </c>
       <c r="I10">
-        <v>1.253</v>
+        <v>0.944</v>
       </c>
       <c r="J10">
-        <v>0.211</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11790,10 +11790,10 @@
         <v>0.185</v>
       </c>
       <c r="I11">
-        <v>0.164</v>
+        <v>0.197</v>
       </c>
       <c r="J11">
-        <v>0.87</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11822,10 +11822,10 @@
         <v>-1.308</v>
       </c>
       <c r="I12">
-        <v>-1.126</v>
+        <v>-1.19</v>
       </c>
       <c r="J12">
-        <v>0.261</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11854,10 +11854,10 @@
         <v>-2.57</v>
       </c>
       <c r="I13">
-        <v>-2.234</v>
+        <v>-2.164</v>
       </c>
       <c r="J13">
-        <v>0.026</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11886,10 +11886,10 @@
         <v>0.001</v>
       </c>
       <c r="I14">
-        <v>0.034</v>
+        <v>0.041</v>
       </c>
       <c r="J14">
-        <v>0.973</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11918,10 +11918,10 @@
         <v>0.005</v>
       </c>
       <c r="I15">
-        <v>0.262</v>
+        <v>0.264</v>
       </c>
       <c r="J15">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11950,10 +11950,10 @@
         <v>0.025</v>
       </c>
       <c r="I16">
-        <v>1.264</v>
+        <v>1.136</v>
       </c>
       <c r="J16">
-        <v>0.207</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11982,10 +11982,10 @@
         <v>-0.007</v>
       </c>
       <c r="I17">
-        <v>-0.34</v>
+        <v>-0.361</v>
       </c>
       <c r="J17">
-        <v>0.734</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12014,7 +12014,7 @@
         <v>-0</v>
       </c>
       <c r="I18">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="J18">
         <v>0.995</v>
@@ -12046,10 +12046,10 @@
         <v>0.032</v>
       </c>
       <c r="I19">
-        <v>1.591</v>
+        <v>1.834</v>
       </c>
       <c r="J19">
-        <v>0.112</v>
+        <v>0.067</v>
       </c>
     </row>
   </sheetData>
@@ -12135,7 +12135,7 @@
         <v>-2.935</v>
       </c>
       <c r="I2">
-        <v>-1.032</v>
+        <v>-1.029</v>
       </c>
       <c r="J2">
         <v>0.303</v>
@@ -12167,10 +12167,10 @@
         <v>-4.032</v>
       </c>
       <c r="I3">
-        <v>-1.49</v>
+        <v>-1.16</v>
       </c>
       <c r="J3">
-        <v>0.137</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12199,10 +12199,10 @@
         <v>-5.92</v>
       </c>
       <c r="I4">
-        <v>-1.581</v>
+        <v>-1.409</v>
       </c>
       <c r="J4">
-        <v>0.115</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12231,10 +12231,10 @@
         <v>-3.348</v>
       </c>
       <c r="I5">
-        <v>-0.894</v>
+        <v>-1.15</v>
       </c>
       <c r="J5">
-        <v>0.372</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12263,10 +12263,10 @@
         <v>1.273</v>
       </c>
       <c r="I6">
-        <v>0.331</v>
+        <v>0.314</v>
       </c>
       <c r="J6">
-        <v>0.741</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12295,10 +12295,10 @@
         <v>-0.909</v>
       </c>
       <c r="I7">
-        <v>-0.236</v>
+        <v>-0.225</v>
       </c>
       <c r="J7">
-        <v>0.8139999999999999</v>
+        <v>0.822</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12324,13 +12324,13 @@
         <v>0.033</v>
       </c>
       <c r="H8">
-        <v>0.515</v>
+        <v>0.459</v>
       </c>
       <c r="I8">
-        <v>0.465</v>
+        <v>0.415</v>
       </c>
       <c r="J8">
-        <v>0.642</v>
+        <v>0.678</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12359,10 +12359,10 @@
         <v>1.758</v>
       </c>
       <c r="I9">
-        <v>1.534</v>
+        <v>1.148</v>
       </c>
       <c r="J9">
-        <v>0.126</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12391,10 +12391,10 @@
         <v>1.897</v>
       </c>
       <c r="I10">
-        <v>1.43</v>
+        <v>1.172</v>
       </c>
       <c r="J10">
-        <v>0.154</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12423,10 +12423,10 @@
         <v>0.696</v>
       </c>
       <c r="I11">
-        <v>0.528</v>
+        <v>0.601</v>
       </c>
       <c r="J11">
-        <v>0.598</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12455,10 +12455,10 @@
         <v>-0.153</v>
       </c>
       <c r="I12">
-        <v>-0.113</v>
+        <v>-0.105</v>
       </c>
       <c r="J12">
-        <v>0.91</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12487,10 +12487,10 @@
         <v>-0.329</v>
       </c>
       <c r="I13">
-        <v>-0.244</v>
+        <v>-0.245</v>
       </c>
       <c r="J13">
-        <v>0.8080000000000001</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12519,10 +12519,10 @@
         <v>-0.007</v>
       </c>
       <c r="I14">
-        <v>-0.336</v>
+        <v>-0.377</v>
       </c>
       <c r="J14">
-        <v>0.737</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12551,10 +12551,10 @@
         <v>-0.012</v>
       </c>
       <c r="I15">
-        <v>-0.539</v>
+        <v>-0.536</v>
       </c>
       <c r="J15">
-        <v>0.59</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12583,10 +12583,10 @@
         <v>0.017</v>
       </c>
       <c r="I16">
-        <v>0.754</v>
+        <v>0.573</v>
       </c>
       <c r="J16">
-        <v>0.451</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12615,10 +12615,10 @@
         <v>-0.018</v>
       </c>
       <c r="I17">
-        <v>-0.791</v>
+        <v>-1.052</v>
       </c>
       <c r="J17">
-        <v>0.429</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12647,10 +12647,10 @@
         <v>0.01</v>
       </c>
       <c r="I18">
-        <v>0.456</v>
+        <v>0.398</v>
       </c>
       <c r="J18">
-        <v>0.648</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12679,10 +12679,10 @@
         <v>0.038</v>
       </c>
       <c r="I19">
-        <v>1.648</v>
+        <v>1.737</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0.082</v>
       </c>
     </row>
   </sheetData>
@@ -12775,10 +12775,10 @@
         <v>-4.661</v>
       </c>
       <c r="J2">
-        <v>-1.406</v>
+        <v>-1.55</v>
       </c>
       <c r="K2">
-        <v>0.16</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -12810,10 +12810,10 @@
         <v>-5.192</v>
       </c>
       <c r="J3">
-        <v>-1.646</v>
+        <v>-1.509</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -12845,10 +12845,10 @@
         <v>-5.942</v>
       </c>
       <c r="J4">
-        <v>-1.359</v>
+        <v>-1.259</v>
       </c>
       <c r="K4">
-        <v>0.175</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -12880,10 +12880,10 @@
         <v>-4.391</v>
       </c>
       <c r="J5">
-        <v>-1.006</v>
+        <v>-1.224</v>
       </c>
       <c r="K5">
-        <v>0.315</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -12915,10 +12915,10 @@
         <v>1.408</v>
       </c>
       <c r="J6">
-        <v>0.314</v>
+        <v>0.26</v>
       </c>
       <c r="K6">
-        <v>0.753</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -12950,10 +12950,10 @@
         <v>0.849</v>
       </c>
       <c r="J7">
-        <v>0.189</v>
+        <v>0.174</v>
       </c>
       <c r="K7">
-        <v>0.85</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -12982,13 +12982,13 @@
         <v>0.025</v>
       </c>
       <c r="I8">
-        <v>0.919</v>
+        <v>0.87</v>
       </c>
       <c r="J8">
-        <v>0.711</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="K8">
-        <v>0.477</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13020,10 +13020,10 @@
         <v>2.719</v>
       </c>
       <c r="J9">
-        <v>2.039</v>
+        <v>1.704</v>
       </c>
       <c r="K9">
-        <v>0.042</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13055,10 +13055,10 @@
         <v>2.868</v>
       </c>
       <c r="J10">
-        <v>1.857</v>
+        <v>1.545</v>
       </c>
       <c r="K10">
-        <v>0.064</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13090,10 +13090,10 @@
         <v>1.141</v>
       </c>
       <c r="J11">
-        <v>0.742</v>
+        <v>0.841</v>
       </c>
       <c r="K11">
-        <v>0.459</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13125,10 +13125,10 @@
         <v>0.143</v>
       </c>
       <c r="J12">
-        <v>0.09</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K12">
-        <v>0.928</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13160,10 +13160,10 @@
         <v>-0.6840000000000001</v>
       </c>
       <c r="J13">
-        <v>-0.434</v>
+        <v>-0.407</v>
       </c>
       <c r="K13">
-        <v>0.664</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13195,10 +13195,10 @@
         <v>-0.01</v>
       </c>
       <c r="J14">
-        <v>-0.397</v>
+        <v>-0.388</v>
       </c>
       <c r="K14">
-        <v>0.6909999999999999</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13230,10 +13230,10 @@
         <v>-0.013</v>
       </c>
       <c r="J15">
-        <v>-0.518</v>
+        <v>-0.576</v>
       </c>
       <c r="K15">
-        <v>0.605</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13265,10 +13265,10 @@
         <v>0.01</v>
       </c>
       <c r="J16">
-        <v>0.379</v>
+        <v>0.309</v>
       </c>
       <c r="K16">
-        <v>0.705</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13300,10 +13300,10 @@
         <v>-0.02</v>
       </c>
       <c r="J17">
-        <v>-0.76</v>
+        <v>-0.929</v>
       </c>
       <c r="K17">
-        <v>0.447</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13335,7 +13335,7 @@
         <v>-0.005</v>
       </c>
       <c r="J18">
-        <v>-0.182</v>
+        <v>-0.181</v>
       </c>
       <c r="K18">
         <v>0.856</v>
@@ -13370,10 +13370,10 @@
         <v>0.045</v>
       </c>
       <c r="J19">
-        <v>1.661</v>
+        <v>1.795</v>
       </c>
       <c r="K19">
-        <v>0.097</v>
+        <v>0.073</v>
       </c>
     </row>
   </sheetData>
@@ -13466,10 +13466,10 @@
         <v>-5.605</v>
       </c>
       <c r="J2">
-        <v>-1.49</v>
+        <v>-1.863</v>
       </c>
       <c r="K2">
-        <v>0.137</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -13501,10 +13501,10 @@
         <v>-7.007</v>
       </c>
       <c r="J3">
-        <v>-1.958</v>
+        <v>-1.763</v>
       </c>
       <c r="K3">
-        <v>0.051</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13536,10 +13536,10 @@
         <v>-7.873</v>
       </c>
       <c r="J4">
-        <v>-1.587</v>
+        <v>-1.509</v>
       </c>
       <c r="K4">
-        <v>0.113</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13571,10 +13571,10 @@
         <v>-5.092</v>
       </c>
       <c r="J5">
-        <v>-1.027</v>
+        <v>-1.316</v>
       </c>
       <c r="K5">
-        <v>0.305</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13606,10 +13606,10 @@
         <v>1.523</v>
       </c>
       <c r="J6">
-        <v>0.299</v>
+        <v>0.278</v>
       </c>
       <c r="K6">
-        <v>0.765</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13641,10 +13641,10 @@
         <v>1.471</v>
       </c>
       <c r="J7">
-        <v>0.288</v>
+        <v>0.286</v>
       </c>
       <c r="K7">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13673,13 +13673,13 @@
         <v>0.02</v>
       </c>
       <c r="I8">
-        <v>1.586</v>
+        <v>1.54</v>
       </c>
       <c r="J8">
-        <v>1.082</v>
+        <v>1.158</v>
       </c>
       <c r="K8">
-        <v>0.28</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13711,10 +13711,10 @@
         <v>3.134</v>
       </c>
       <c r="J9">
-        <v>2.069</v>
+        <v>1.733</v>
       </c>
       <c r="K9">
-        <v>0.039</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13746,10 +13746,10 @@
         <v>3.488</v>
       </c>
       <c r="J10">
-        <v>1.989</v>
+        <v>1.731</v>
       </c>
       <c r="K10">
-        <v>0.047</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13781,10 +13781,10 @@
         <v>0.844</v>
       </c>
       <c r="J11">
-        <v>0.483</v>
+        <v>0.591</v>
       </c>
       <c r="K11">
-        <v>0.629</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13816,10 +13816,10 @@
         <v>0.029</v>
       </c>
       <c r="J12">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="K12">
-        <v>0.987</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13851,10 +13851,10 @@
         <v>-1.37</v>
       </c>
       <c r="J13">
-        <v>-0.767</v>
+        <v>-0.8</v>
       </c>
       <c r="K13">
-        <v>0.443</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13886,10 +13886,10 @@
         <v>-0.027</v>
       </c>
       <c r="J14">
-        <v>-0.955</v>
+        <v>-0.988</v>
       </c>
       <c r="K14">
-        <v>0.34</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13921,10 +13921,10 @@
         <v>-0.017</v>
       </c>
       <c r="J15">
-        <v>-0.61</v>
+        <v>-0.728</v>
       </c>
       <c r="K15">
-        <v>0.542</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13956,10 +13956,10 @@
         <v>-0.01</v>
       </c>
       <c r="J16">
-        <v>-0.348</v>
+        <v>-0.332</v>
       </c>
       <c r="K16">
-        <v>0.728</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13991,10 +13991,10 @@
         <v>-0.024</v>
       </c>
       <c r="J17">
-        <v>-0.806</v>
+        <v>-0.967</v>
       </c>
       <c r="K17">
-        <v>0.421</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -14026,10 +14026,10 @@
         <v>-0.007</v>
       </c>
       <c r="J18">
-        <v>-0.216</v>
+        <v>-0.236</v>
       </c>
       <c r="K18">
-        <v>0.829</v>
+        <v>0.8129999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -14061,10 +14061,10 @@
         <v>0.053</v>
       </c>
       <c r="J19">
-        <v>1.734</v>
+        <v>2.215</v>
       </c>
       <c r="K19">
-        <v>0.08400000000000001</v>
+        <v>0.027</v>
       </c>
     </row>
   </sheetData>
@@ -14150,10 +14150,10 @@
         <v>-0.913</v>
       </c>
       <c r="I2">
-        <v>-0.404</v>
+        <v>-0.395</v>
       </c>
       <c r="J2">
-        <v>0.6860000000000001</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -14182,10 +14182,10 @@
         <v>-2.631</v>
       </c>
       <c r="I3">
-        <v>-1.224</v>
+        <v>-0.9419999999999999</v>
       </c>
       <c r="J3">
-        <v>0.221</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14214,10 +14214,10 @@
         <v>-1.256</v>
       </c>
       <c r="I4">
-        <v>-0.422</v>
+        <v>-0.352</v>
       </c>
       <c r="J4">
-        <v>0.674</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14246,10 +14246,10 @@
         <v>-1.435</v>
       </c>
       <c r="I5">
-        <v>-0.483</v>
+        <v>-0.532</v>
       </c>
       <c r="J5">
-        <v>0.629</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14278,10 +14278,10 @@
         <v>5.208</v>
       </c>
       <c r="I6">
-        <v>1.715</v>
+        <v>1.637</v>
       </c>
       <c r="J6">
-        <v>0.08699999999999999</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14310,10 +14310,10 @@
         <v>4.43</v>
       </c>
       <c r="I7">
-        <v>1.451</v>
+        <v>1.321</v>
       </c>
       <c r="J7">
-        <v>0.148</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14339,13 +14339,13 @@
         <v>0.056</v>
       </c>
       <c r="H8">
-        <v>-0.381</v>
+        <v>-0.428</v>
       </c>
       <c r="I8">
-        <v>-0.433</v>
+        <v>-0.464</v>
       </c>
       <c r="J8">
-        <v>0.665</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14374,10 +14374,10 @@
         <v>0.998</v>
       </c>
       <c r="I9">
-        <v>1.096</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="J9">
-        <v>0.274</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -14406,10 +14406,10 @@
         <v>0.644</v>
       </c>
       <c r="I10">
-        <v>0.611</v>
+        <v>0.456</v>
       </c>
       <c r="J10">
-        <v>0.542</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14438,10 +14438,10 @@
         <v>0.485</v>
       </c>
       <c r="I11">
-        <v>0.464</v>
+        <v>0.478</v>
       </c>
       <c r="J11">
-        <v>0.643</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -14470,10 +14470,10 @@
         <v>-0.959</v>
       </c>
       <c r="I12">
-        <v>-0.893</v>
+        <v>-0.869</v>
       </c>
       <c r="J12">
-        <v>0.373</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -14502,10 +14502,10 @@
         <v>-2.158</v>
       </c>
       <c r="I13">
-        <v>-2.026</v>
+        <v>-1.889</v>
       </c>
       <c r="J13">
-        <v>0.043</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14534,10 +14534,10 @@
         <v>-0.006</v>
       </c>
       <c r="I14">
-        <v>-0.337</v>
+        <v>-0.388</v>
       </c>
       <c r="J14">
-        <v>0.737</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14566,10 +14566,10 @@
         <v>-0.001</v>
       </c>
       <c r="I15">
-        <v>-0.044</v>
+        <v>-0.038</v>
       </c>
       <c r="J15">
-        <v>0.965</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14598,10 +14598,10 @@
         <v>0.013</v>
       </c>
       <c r="I16">
-        <v>0.734</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="J16">
-        <v>0.463</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14630,10 +14630,10 @@
         <v>-0.014</v>
       </c>
       <c r="I17">
-        <v>-0.76</v>
+        <v>-0.729</v>
       </c>
       <c r="J17">
-        <v>0.448</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14662,10 +14662,10 @@
         <v>-0.002</v>
       </c>
       <c r="I18">
-        <v>-0.121</v>
+        <v>-0.089</v>
       </c>
       <c r="J18">
-        <v>0.904</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14694,10 +14694,10 @@
         <v>0.025</v>
       </c>
       <c r="I19">
-        <v>1.352</v>
+        <v>1.364</v>
       </c>
       <c r="J19">
-        <v>0.177</v>
+        <v>0.173</v>
       </c>
     </row>
   </sheetData>
